--- a/_prj_Testing/Test.xlsx
+++ b/_prj_Testing/Test.xlsx
@@ -3,11 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Projects\Others\Automation_Tools\_prj_Testing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Diem" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -16,6 +21,38 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t xml:space="preserve">Nhân </t>
+  </si>
+  <si>
+    <t>Diễm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mai </t>
+  </si>
+  <si>
+    <t>Châu</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Tường</t>
+  </si>
+  <si>
+    <t>Toán</t>
+  </si>
+  <si>
+    <t>Lý</t>
+  </si>
+  <si>
+    <t>Hóa</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,12 +368,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>8.5</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C4">
+        <v>8.5</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>3.5</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>